--- a/index/kreise-index-pop2020.xlsx
+++ b/index/kreise-index-pop2020.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t xml:space="preserve">kreis</t>
   </si>
@@ -47,9 +47,6 @@
     <t xml:space="preserve">Darmstadt, Wissenschaftsstadt</t>
   </si>
   <si>
-    <t xml:space="preserve">159174</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://www.darmstadt.de/presseservice/aktuell</t>
   </si>
   <si>
@@ -62,9 +59,6 @@
     <t xml:space="preserve">Frankfurt am Main, Stadt</t>
   </si>
   <si>
-    <t xml:space="preserve">764104</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://frankfurt.de/service-und-rathaus/verwaltung/aemter-und-institutionen/gesundheitsamt/informationen-zum-neuartigen-coronavirus-sars-cov-2/aktuelle-lage</t>
   </si>
   <si>
@@ -77,9 +71,6 @@
     <t xml:space="preserve">Offenbach am Main, Stadt</t>
   </si>
   <si>
-    <t xml:space="preserve">130892</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://www.offenbach.de/leben-in-of/gesundheit/dir-6/corona/coronavirus_meldungen.php</t>
   </si>
   <si>
@@ -92,9 +83,6 @@
     <t xml:space="preserve">Wiesbaden, Landeshauptstadt</t>
   </si>
   <si>
-    <t xml:space="preserve">278609</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://www.wiesbaden.de/leben-in-wiesbaden/gesundheit/gesundheitsfoerderung/coronafallzahlen.php</t>
   </si>
   <si>
@@ -107,9 +95,6 @@
     <t xml:space="preserve">Heppenheim (Bergstraße), Kreisstadt</t>
   </si>
   <si>
-    <t xml:space="preserve">271015</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://www.kreis-bergstrasse.de/staticsite/staticsite.php?menuid=613&amp;topmenu=467</t>
   </si>
   <si>
@@ -122,9 +107,6 @@
     <t xml:space="preserve">Dieburg, Stadt</t>
   </si>
   <si>
-    <t xml:space="preserve">297701</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://perspektive.ladadi.de/index.php?id=137</t>
   </si>
   <si>
@@ -137,9 +119,6 @@
     <t xml:space="preserve">Groß-Gerau, Stadt</t>
   </si>
   <si>
-    <t xml:space="preserve">275807</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://www.kreisgg.de/gesundheit/infektionsschutz/corona-krise-info-und-hotlines/</t>
   </si>
   <si>
@@ -152,9 +131,6 @@
     <t xml:space="preserve">Bad Homburg v. d. Höhe, Stadt</t>
   </si>
   <si>
-    <t xml:space="preserve">237281</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://experience.arcgis.com/experience/4b4dac52f30b4193a566a064b29ea313</t>
   </si>
   <si>
@@ -167,9 +143,6 @@
     <t xml:space="preserve">Gelnhausen, Barbarossast., Krst.</t>
   </si>
   <si>
-    <t xml:space="preserve">421689</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://mkk.maps.arcgis.com/apps/opsdashboard/index.html#/f761ad713ac24f9ca4fca853b71962c9</t>
   </si>
   <si>
@@ -182,9 +155,6 @@
     <t xml:space="preserve">Hofheim am Taunus, Kreisstadt</t>
   </si>
   <si>
-    <t xml:space="preserve">239264</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://www.mtk.org/Aktuelles-8727.htm</t>
   </si>
   <si>
@@ -197,9 +167,6 @@
     <t xml:space="preserve">Erbach, Kreisstadt</t>
   </si>
   <si>
-    <t xml:space="preserve">96754</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://www.odenwaldkreis.de/index.php?id=154</t>
   </si>
   <si>
@@ -212,9 +179,6 @@
     <t xml:space="preserve">Dietzenbach, Kreisstadt</t>
   </si>
   <si>
-    <t xml:space="preserve">356542</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://www.kreis-offenbach.de/Themen/Gesundheit-Verbraucher-schutz/akut/Corona/Corona-Entwicklung/</t>
   </si>
   <si>
@@ -227,9 +191,6 @@
     <t xml:space="preserve">Bad Schwalbach, Kreisstadt</t>
   </si>
   <si>
-    <t xml:space="preserve">187433</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://www.rheingau-taunus.de/corona.html</t>
   </si>
   <si>
@@ -242,9 +203,6 @@
     <t xml:space="preserve">Friedberg (Hessen), Kreisstadt</t>
   </si>
   <si>
-    <t xml:space="preserve">310353</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://www.wetteraukreis.de/aktuelles/pressemitteilungen/?no_cache=1</t>
   </si>
   <si>
@@ -257,9 +215,6 @@
     <t xml:space="preserve">Gießen, Universitätsstadt</t>
   </si>
   <si>
-    <t xml:space="preserve">271667</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://corona.lkgi.de/</t>
   </si>
   <si>
@@ -272,9 +227,6 @@
     <t xml:space="preserve">Wetzlar, Stadt</t>
   </si>
   <si>
-    <t xml:space="preserve">253373</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://corona.lahn-dill-kreis.de/</t>
   </si>
   <si>
@@ -287,9 +239,6 @@
     <t xml:space="preserve">Limburg a.d. Lahn, Kreisstadt</t>
   </si>
   <si>
-    <t xml:space="preserve">172291</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://www.landkreis-limburg-weilburg.de/leben-im-landkreis/gesundheit/informationen-zum-corona-virus/details/aktuelle-informationen-des-landkreises-limburg-weilburg-zum-corona-virus-21122020</t>
   </si>
   <si>
@@ -302,9 +251,6 @@
     <t xml:space="preserve">Marburg, Universitätsstadt</t>
   </si>
   <si>
-    <t xml:space="preserve">245903</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://www.marburg-biedenkopf.de/soziales_und_gesundheit/corona/Aktuelle-Corona-Zahlen.php</t>
   </si>
   <si>
@@ -317,9 +263,6 @@
     <t xml:space="preserve">Lauterbach (Hessen), Kreisstadt</t>
   </si>
   <si>
-    <t xml:space="preserve">105506</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://www.vogelsbergkreis.de/kreisverwaltung/presse.html</t>
   </si>
   <si>
@@ -332,9 +275,6 @@
     <t xml:space="preserve">Kassel, documenta-Stadt</t>
   </si>
   <si>
-    <t xml:space="preserve">201048</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://www.kassel.de/aktuelles/aktuelle-meldungen/coronavirus.php</t>
   </si>
   <si>
@@ -347,9 +287,6 @@
     <t xml:space="preserve">Fulda, Stadt</t>
   </si>
   <si>
-    <t xml:space="preserve">223023</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://www.landkreis-fulda.de/corona-statistik</t>
   </si>
   <si>
@@ -362,9 +299,6 @@
     <t xml:space="preserve">Bad Hersfeld, Kreisstadt</t>
   </si>
   <si>
-    <t xml:space="preserve">120304</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://www.hef-rof.de</t>
   </si>
   <si>
@@ -377,9 +311,6 @@
     <t xml:space="preserve">Hofgeismar, Stadt</t>
   </si>
   <si>
-    <t xml:space="preserve">237007</t>
-  </si>
-  <si>
     <t xml:space="preserve">Schwalm-Eder-Kreis</t>
   </si>
   <si>
@@ -389,9 +320,6 @@
     <t xml:space="preserve">Fritzlar, Dom- und Kaiserstadt</t>
   </si>
   <si>
-    <t xml:space="preserve">179840</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://www.schwalm-eder-kreis.de/Aktuelles/Aktuelle-Informationen-zum-neuartigen-Coronavirus-Covid-19/Aktuelle-Zahlen-Schwalm-Eder.htm?</t>
   </si>
   <si>
@@ -404,9 +332,6 @@
     <t xml:space="preserve">Korbach, Hansestadt, Kreisstadt</t>
   </si>
   <si>
-    <t xml:space="preserve">156528</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://www.landkreis-waldeck-frankenberg.de/leben-geniessen/wohlbefinden-bewahren/gesundheitsfoerderung/informationen-zum-coronavirus/infektionszahlen/</t>
   </si>
   <si>
@@ -417,9 +342,6 @@
   </si>
   <si>
     <t xml:space="preserve">Eschwege, Kreisstadt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100046</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.werra-meissner-kreis.de/fachbereiche-einrichtungen/stab-verwaltungsleitung-und-steuerung/presse-und-oeffentlichkeitsarbeit-buergerreferat-kultur-und-kreisarchiv/presse-und-oeffentlichkeitsarbeit/pressemitteilungen</t>
@@ -799,25 +721,25 @@
       <c r="F2" t="n">
         <v>49.872238</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="n">
+        <v>159174</v>
+      </c>
+      <c r="H2" t="s">
         <v>11</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" t="n">
         <v>4</v>
       </c>
       <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
         <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
       </c>
       <c r="E3" t="n">
         <v>8.682433</v>
@@ -825,25 +747,25 @@
       <c r="F3" t="n">
         <v>50.11088</v>
       </c>
-      <c r="G3" t="s">
-        <v>16</v>
+      <c r="G3" t="n">
+        <v>764104</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" t="n">
         <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E4" t="n">
         <v>8.784442</v>
@@ -851,25 +773,25 @@
       <c r="F4" t="n">
         <v>50.100567</v>
       </c>
-      <c r="G4" t="s">
-        <v>21</v>
+      <c r="G4" t="n">
+        <v>130892</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B5" t="n">
         <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E5" t="n">
         <v>8.239138</v>
@@ -877,25 +799,25 @@
       <c r="F5" t="n">
         <v>50.081698</v>
       </c>
-      <c r="G5" t="s">
-        <v>26</v>
+      <c r="G5" t="n">
+        <v>278609</v>
       </c>
       <c r="H5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E6" t="n">
         <v>8.644017</v>
@@ -903,25 +825,25 @@
       <c r="F6" t="n">
         <v>49.641185</v>
       </c>
-      <c r="G6" t="s">
-        <v>31</v>
+      <c r="G6" t="n">
+        <v>271015</v>
       </c>
       <c r="H6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B7" t="n">
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E7" t="n">
         <v>8.840041</v>
@@ -929,25 +851,25 @@
       <c r="F7" t="n">
         <v>49.899272</v>
       </c>
-      <c r="G7" t="s">
-        <v>36</v>
+      <c r="G7" t="n">
+        <v>297701</v>
       </c>
       <c r="H7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B8" t="n">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E8" t="n">
         <v>8.482423</v>
@@ -955,25 +877,25 @@
       <c r="F8" t="n">
         <v>49.92162</v>
       </c>
-      <c r="G8" t="s">
-        <v>41</v>
+      <c r="G8" t="n">
+        <v>275807</v>
       </c>
       <c r="H8" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B9" t="n">
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E9" t="n">
         <v>8.61299</v>
@@ -981,25 +903,25 @@
       <c r="F9" t="n">
         <v>50.228406</v>
       </c>
-      <c r="G9" t="s">
-        <v>46</v>
+      <c r="G9" t="n">
+        <v>237281</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B10" t="n">
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E10" t="n">
         <v>9.191488</v>
@@ -1007,25 +929,25 @@
       <c r="F10" t="n">
         <v>50.203103</v>
       </c>
-      <c r="G10" t="s">
-        <v>51</v>
+      <c r="G10" t="n">
+        <v>421689</v>
       </c>
       <c r="H10" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B11" t="n">
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E11" t="n">
         <v>8.446053</v>
@@ -1033,25 +955,25 @@
       <c r="F11" t="n">
         <v>50.088576</v>
       </c>
-      <c r="G11" t="s">
-        <v>56</v>
+      <c r="G11" t="n">
+        <v>239264</v>
       </c>
       <c r="H11" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B12" t="n">
         <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="D12" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E12" t="n">
         <v>8.99268</v>
@@ -1059,25 +981,25 @@
       <c r="F12" t="n">
         <v>49.657653</v>
       </c>
-      <c r="G12" t="s">
-        <v>61</v>
+      <c r="G12" t="n">
+        <v>96754</v>
       </c>
       <c r="H12" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B13" t="n">
         <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="D13" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="E13" t="n">
         <v>8.781779</v>
@@ -1085,25 +1007,25 @@
       <c r="F13" t="n">
         <v>50.008939</v>
       </c>
-      <c r="G13" t="s">
-        <v>66</v>
+      <c r="G13" t="n">
+        <v>356542</v>
       </c>
       <c r="H13" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="B14" t="n">
         <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D14" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="E14" t="n">
         <v>8.069825</v>
@@ -1111,25 +1033,25 @@
       <c r="F14" t="n">
         <v>50.140276</v>
       </c>
-      <c r="G14" t="s">
-        <v>71</v>
+      <c r="G14" t="n">
+        <v>187433</v>
       </c>
       <c r="H14" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="B15" t="n">
         <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="D15" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="E15" t="n">
         <v>8.754091</v>
@@ -1137,25 +1059,25 @@
       <c r="F15" t="n">
         <v>50.33776</v>
       </c>
-      <c r="G15" t="s">
-        <v>76</v>
+      <c r="G15" t="n">
+        <v>310353</v>
       </c>
       <c r="H15" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="B16" t="n">
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="D16" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="E16" t="n">
         <v>8.674877</v>
@@ -1163,25 +1085,25 @@
       <c r="F16" t="n">
         <v>50.586195</v>
       </c>
-      <c r="G16" t="s">
-        <v>81</v>
+      <c r="G16" t="n">
+        <v>271667</v>
       </c>
       <c r="H16" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="B17" t="n">
         <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="D17" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="E17" t="n">
         <v>8.501069</v>
@@ -1189,25 +1111,25 @@
       <c r="F17" t="n">
         <v>50.554439</v>
       </c>
-      <c r="G17" t="s">
-        <v>86</v>
+      <c r="G17" t="n">
+        <v>253373</v>
       </c>
       <c r="H17" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="B18" t="n">
         <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="D18" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="E18" t="n">
         <v>8.064098</v>
@@ -1215,25 +1137,25 @@
       <c r="F18" t="n">
         <v>50.387254</v>
       </c>
-      <c r="G18" t="s">
-        <v>91</v>
+      <c r="G18" t="n">
+        <v>172291</v>
       </c>
       <c r="H18" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="B19" t="n">
         <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="D19" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="E19" t="n">
         <v>8.769147</v>
@@ -1241,25 +1163,25 @@
       <c r="F19" t="n">
         <v>50.809004</v>
       </c>
-      <c r="G19" t="s">
-        <v>96</v>
+      <c r="G19" t="n">
+        <v>245903</v>
       </c>
       <c r="H19" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="B20" t="n">
         <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="D20" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="E20" t="n">
         <v>9.397967</v>
@@ -1267,25 +1189,25 @@
       <c r="F20" t="n">
         <v>50.635729</v>
       </c>
-      <c r="G20" t="s">
-        <v>101</v>
+      <c r="G20" t="n">
+        <v>105506</v>
       </c>
       <c r="H20" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="B21" t="n">
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="D21" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="E21" t="n">
         <v>9.495199</v>
@@ -1293,25 +1215,25 @@
       <c r="F21" t="n">
         <v>51.314684</v>
       </c>
-      <c r="G21" t="s">
-        <v>106</v>
+      <c r="G21" t="n">
+        <v>201048</v>
       </c>
       <c r="H21" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="B22" t="n">
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="D22" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="E22" t="n">
         <v>9.675061</v>
@@ -1319,25 +1241,25 @@
       <c r="F22" t="n">
         <v>50.55323</v>
       </c>
-      <c r="G22" t="s">
-        <v>111</v>
+      <c r="G22" t="n">
+        <v>223023</v>
       </c>
       <c r="H22" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="B23" t="n">
         <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="D23" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="E23" t="n">
         <v>9.706008</v>
@@ -1345,25 +1267,25 @@
       <c r="F23" t="n">
         <v>50.867805</v>
       </c>
-      <c r="G23" t="s">
-        <v>116</v>
+      <c r="G23" t="n">
+        <v>120304</v>
       </c>
       <c r="H23" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="B24" t="n">
         <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="D24" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="E24" t="n">
         <v>9.383496</v>
@@ -1371,25 +1293,25 @@
       <c r="F24" t="n">
         <v>51.494179</v>
       </c>
-      <c r="G24" t="s">
-        <v>121</v>
+      <c r="G24" t="n">
+        <v>237007</v>
       </c>
       <c r="H24" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="B25" t="n">
         <v>21</v>
       </c>
       <c r="C25" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="D25" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="E25" t="n">
         <v>9.275373</v>
@@ -1397,25 +1319,25 @@
       <c r="F25" t="n">
         <v>51.13094</v>
       </c>
-      <c r="G25" t="s">
-        <v>125</v>
+      <c r="G25" t="n">
+        <v>179840</v>
       </c>
       <c r="H25" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="B26" t="n">
         <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="D26" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="E26" t="n">
         <v>8.873194</v>
@@ -1423,25 +1345,25 @@
       <c r="F26" t="n">
         <v>51.27186</v>
       </c>
-      <c r="G26" t="s">
-        <v>130</v>
+      <c r="G26" t="n">
+        <v>156528</v>
       </c>
       <c r="H26" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="B27" t="n">
         <v>24</v>
       </c>
       <c r="C27" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="D27" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="E27" t="n">
         <v>10.057981</v>
@@ -1449,11 +1371,11 @@
       <c r="F27" t="n">
         <v>51.185804</v>
       </c>
-      <c r="G27" t="s">
-        <v>135</v>
+      <c r="G27" t="n">
+        <v>100046</v>
       </c>
       <c r="H27" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
